--- a/parts.xlsx
+++ b/parts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smart2\Documents\Reforma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Reforma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96C47D70-3934-406E-BB2E-ECBC393C3366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07ACA656-5BE1-4523-B66A-22E1BC7DDB61}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5550" yWindow="2955" windowWidth="11835" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parts" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="309">
   <si>
     <t>id</t>
   </si>
@@ -833,6 +833,120 @@
   </si>
   <si>
     <t>мышцы выпрямляющие позвоночник справа (m.erector spine dextra), ее части: длиннейшие мышцы спины (m.longissimus) иннервация rr.dorsales nn.spinales (CI - SII), подвздошнореберные мышцы(m.iliocostalis), иннервация rr.dorsales nn.spinales (CIII - SV, ThI - LI) (функция: при двустороннем сокращении мощный разгибатель позвоночника, удерживает туловище в вертикальном положении, при одностороннем сокращении наклоняет туловище в правую сторону)</t>
+  </si>
+  <si>
+    <t>hint1 UZ</t>
+  </si>
+  <si>
+    <t>O'ng tayoqning uch qismli muskulasi (m.triceps surae dextra) Achilles bog'chasi bilan (tendo calcaneus (Achillis)), innervatsiya n.tibialis (LIV - SII) (funksiya: o'ng tayoqni egizak bog'lovchi, o'ng to'g'risidagi egriksiz, piyoda ko'tariladi).</t>
+  </si>
+  <si>
+    <t>O'ng tomonda guruh muskul: biceps muskulasi tomon (caput longum m.biceps femori), innervatsiya n.tibialis, n.ischiadicus (SI - SII), n.peroneus communis (LIV - LV, SI) (funksiya: tomonni qaytarib, tayoqni egriksiz tashqariga aylantiradi), yarim tendinoz muskul (m.semitendinosus) innervatsiya n.tibialis (LIV - LV, SII) (funksiya: tomonni qaytarib, tayoqni egriksiz, ozgina ichkariga aylantiradi, tanani to'g'rilashda ishtirok etadi), yarim membranoz muskul (m.semimembranosus) innervatsiya n.tibialis (LIV - LV, SI) (funksiya: tomonni qaytarib, tayoqni egriksiz, ichkariga aylantiradi).</t>
+  </si>
+  <si>
+    <t>Chap tomonda guruh muskul: biceps muskulasi tomon (caput longum m.biceps femori), innervatsiya n.tibialis, n.ischiadicus (SI - SII), n.peroneus communis (LIV - LV, SI) (funksiya: tomonni qaytarib, tayoqni egriksiz tashqariga aylantiradi), yarim tendinoz muskul (m.semitendinosus) innervatsiya n.tibialis (LIV - LV, SII) (funksiya: tomonni qaytarib, tayoqni egriksiz, ozgina ichkariga aylantiradi, tanani to'g'rilashda ishtirok etadi), yarim membranoz muskul (m.semimembranosus) innervatsiya n.tibialis (LIV - LV, SI) (funksiya: tomonni qaytarib, tayoqni egriksiz, ichkariga aylantiradi).</t>
+  </si>
+  <si>
+    <t>Chap tomonda o'rtacha maximus muskulasi (m.gluteus medius sinistra), innervatsiya n.gluteus superior (plexus sacralis) (LIV - SI) (funksiya: tomonni ajratadi, old tomonda ichkariga aylantiradi, tanani to'g'rilashda ishtirok etadi), chap tomonda keng fascia m.tensori (m.tensor fasciae latae sinistra), innervatsiya n.gluteus superior (plexus sacralis) (LIV - SI) (funksiya: keng fascianing chap tomonni yonboshlab, tomonni egriksiz).</t>
+  </si>
+  <si>
+    <t>O'ng tomonda o'rtacha maximus muskulasi (m.gluteus medius dextra), innervatsiya n.gluteus superior (plexus sacralis) (LIV - SI) (funksiya: tomonni ajratadi, old tomonda ichkariga aylantiradi, tanani to'g'rilashda ishtirok etadi), o'ng tomonda keng fascia m.tensori (m.tensor fasciae latae dextra), innervatsiya n.gluteus superior (plexus sacralis) (LIV - SI) (funksiya: keng fascianing o'ng tomonni yonboshlab, tomonni egriksiz).</t>
+  </si>
+  <si>
+    <t>Orqa tomonda tanani to'g'rilaydigan chap tomondagi muskul (m.erector spinae sinistra), uning qismlari: orqa uzun muskul (m.longissimus) innervatsiya rr.dorsales nn.spinales (CI - SII), iliac-rib muskul (m.iliocostalis), innervatsiya rr.dorsales nn.spinales (CIII - SV, ThI - LI) (funksiya: ikkala tomonda qisqartirish kuchli orqa to'g'rilaydi, tanani vertikal holatda saqlaydi, bir tomondagi qisqartirish chap tomonda tanani egriksiz).</t>
+  </si>
+  <si>
+    <t>Orqa tomonda tanani to'g'rilaydigan o'ng tomondagi muskul (m.erector spinae dextra), uning qismlari: orqa uzun muskul (m.longissimus) innervatsiya rr.dorsales nn.spinales (CI - SII), iliac-rib muskul (m.iliocostalis), innervatsiya rr.dorsales nn.spinales (CIII - SV, ThI - LI) (funksiya: ikkala tomonda qisqartirish kuchli orqa to'g'rilaydi, tanani vertikal holatda saqlaydi, bir tomondagi qisqartirish o'ng tomonda tanani egriksiz).</t>
+  </si>
+  <si>
+    <t>Chap tomonda uch qismli qo'l muskulasi (m.triceps brachii sinistra) innervatsiya n.radialis (CV - CVIII) (funksiya: oldinga va tanaga yaqinlashuvchi qo'lni to'g'rilaydi).</t>
+  </si>
+  <si>
+    <t>O'ng tomonda uch qismli qo'l muskulasi (m.triceps brachii dextra) innervatsiya n.radialis (CV - CVIII) (funksiya: oldinga va tanaga yaqinlashuvchi qo'lni to'g'rilaydi).</t>
+  </si>
+  <si>
+    <t>Chap tomonda old quyi muskul guruh: tirsakka yonboshlovchi zap'yast muskulasi (m.extensor carpi ulnaris) innervatsiya n.radialis (СVI - СVIII) (funksiya: zap'yastni tirsak tomonda yonboshlaydi va to'g'rilaydi), nuqra yonboshlovchi zap'yast muskulasi (m.extensor carpi radialis) innervatsiya n.radialis (СV - СVII) (funksiya: qo'lni tirsak bog'ida qisqartiradi, zap'yastni to'g'rilaydi va uni yonboshlashda ishtirok etadi), barmoqlar to'g'rilaydigan muskul (m.extensor digitorum) innervatsiya n.radialis (СVI - СVIII) (funksiya: barmoqlarni to'g'rilaydi, zap'yastni nuqra bog'ida to'g'rilaydi).</t>
+  </si>
+  <si>
+    <t>O'ng tomonda old quyi muskul guruh: tirsakka yonboshlovchi zap'yast muskulasi (m.extensor carpi ulnaris) innervatsiya n.radialis (СVI - СVIII) (funksiya: zap'yastni tirsak tomonda yonboshlaydi va to'g'rilaydi), nuqra yonboshlovchi zap'yast muskulasi (m.extensor carpi radialis) innervatsiya n.radialis (СV - СVII) (funksiya: qo'lni tirsak bog'ida qisqartiradi, zap'yastni to'g'rilaydi va uni yonboshlashda ishtirok etadi), barmoqlar to'g'rilaydigan muskul (m.extensor digitorum) innervatsiya n.radialis (СVI - СVIII) (funksiya: barmoqlarni to'g'rilaydi, zap'yastni nuqra bog'ida to'g'rilaydi).</t>
+  </si>
+  <si>
+    <t>Chap tomonda trapez muskulasi (m.trapezius sinistra) innervatsiya r.externus n.accesorii et nn.cervicales (СII - СIV) (funksiya: pastki qismlar qisqarilganda lapkani pastga yonboshlaydi, lapkaning bekor qilinishida va bir vaqtda qisqarilish bilan boshni orqaga suraydi).</t>
+  </si>
+  <si>
+    <t>O'ng tomonda trapez muskulasi (m.trapezius dextra) innervatsiya r.externus n.accesorii et nn.cervicales (СII - СIV) (funksiya: pastki qismlar qisqarilganda lapkani pastga yonboshlaydi, lapkaning bekor qilinishida va bir vaqtda qisqarilish bilan boshni orqaga suraydi).</t>
+  </si>
+  <si>
+    <t>Chap tomonda muskul guruh: eng keng orqa muskul (m.latissimus dorsi), innervatsiya n.thoracodorsalis (CIv - CVIII), pastki lapka muskulasi (m.infraspinatus), innervatsiya n.suprascapularis (CV - CVI), kichik va katta aylanuvchi muskullar (mm.teres minor et major ), innervatsiya n.subscapularis (CV - CVII) (funksiya: chap omonni pronir qiladi va orqaga suradi, tanaga yondashadi).</t>
+  </si>
+  <si>
+    <t>O'ng tomonda muskul guruh: eng keng orqa muskul (m.latissimus dorsi), innervatsiya n.thoracodorsalis (CIv - CVIII), pastki lapka muskulasi (m.infraspinatus), innervatsiya n.suprascapularis (CV - CVI), kichik va katta aylanuvchi muskullar (mm.teres minor et major ), innervatsiya n.subscapularis (CV - CVII) (funksiya: o'ng omonni pronir qiladi va orqaga suradi, tanaga yondashadi).</t>
+  </si>
+  <si>
+    <t>Chap tomonda katta bog muskulasi (m.gluteus maximus sinistra) innervatsiya n.gluteus inferior (plexus sacralis) (LIV - SI) (funksiya: chap bedroni to'g'rilaydi pronir qiladi, keng bedro fasciyasini tortadi).</t>
+  </si>
+  <si>
+    <t>O'ng tomonda katta bog muskulasi (m.gluteus maximus dextra) innervatsiya n.gluteus inferior (plexus sacralis) (LIV - SI) (funksiya: o'ng bedroni to'g'rilaydi pronir qiladi, keng bedro fasciyasini tortadi).</t>
+  </si>
+  <si>
+    <t>Chap tomonda uchboshli tayoq muskulasi (m.triceps surae sinistra) Axil suxojilisi bilan (tendo calcaneus (Achillis)), innervatsiya n.tibialis (LIV - SII) (funksiya: chap tayoqni tizoq bog'idagi qisqartiradi, chap oyoqni qisqartiradi, piyolani ko'taradi).</t>
+  </si>
+  <si>
+    <t>hint2 UZ</t>
+  </si>
+  <si>
+    <t>Chap but tomoni mushak guruhlari: old tomon tibialis anterior mushaki (m.tibialis anterior), innervatsiya n.peroneus profundus (LIV - SI) (vazifa: chap og'izni uzatib, uning ichki tomonini ko'taradi (supinatsiya)) va uzoq og'iz barmoqlari uzatuvchisi (m.extensor digitorum longus), innervatsiya n.peroneus profundus (LIV - SI) (vazifa: chap og'izning to'rt barmoqini (II-V) uzatadi, og'izni tashqi tomonini ko'taradi (pronatsiya))</t>
+  </si>
+  <si>
+    <t>O'ng but tomoni mushak guruhlari: old tibialis anterior mushaki (m.tibialis anterior), innervatsiya n.peroneus profundus (LIV - SI) (vazifa: o'ng og'izni uzatib, uning ichki tomonini ko'taradi (supinatsiya)) va uzoq og'iz barmoqlari uzatuvchisi (m.extensor digitorum longus), innervatsiya n.peroneus profundus (LIV - SI) (vazifa: o'ng og'izning to'rt barmoqini (II-V) uzatadi, og'izni tashqi tomonini ko'taradi (pronatsiya))</t>
+  </si>
+  <si>
+    <t>Chap tomoni chettaga mushaki (m.quadriceps femoris, m.rectus femoris sinistra) n.femoralis (plexus lumbalis) (LII - LIV) (vazifa: shin uzatadi va butni egizadi), taylor mushaki (m.sartorius sinistra) innervatsiya n.femoralis (plexus lumbalis) (LII - LIII) (vazifa: butni egizib, tashqiga aylantiradi (supinatsiya))</t>
+  </si>
+  <si>
+    <t>O'ng tomoni chettaga mushaki (m.quadriceps femoris, m.rectus femoris dextra) n.femoralis (plexus lumbalis) (LII - LIV) (vazifa: shin uzatadi va butni egizadi), taylor mushaki (m.sartorius dextra) innervatsiya n.femoralis (plexus lumbalis) (LII - LIII) (vazifa: butni egizib, tashqiga aylantiradi (supinatsiya))</t>
+  </si>
+  <si>
+    <t>Chap tomoni uzoq adductor mushaki (m.adductor longus femorale sinistra) innervatsiya n.obturatorii (LII - LIII) (vazifa: butni yaxshi egizib, tashqiga aylantiradi) va katta adductor mushaki (m.adductor magnus sinistra), innervatsiya n.obturatorii va n.ischiadici (LIV - LV) (vazifa: butni yengil tashqiga aylantiradi)</t>
+  </si>
+  <si>
+    <t>O'ng tomoni uzoq adductor mushaki (m.adductor longus femorale dextra) innervatsiya n.obturatorii (LII - LIII) (vazifa: butni yaxshi egizib, tashqiga aylantiradi) va katta adductor mushaki (m.adductor magnus dextra), innervatsiya n.obturatorii va n.ischiadici (LIV - LV) (vazifa: butni yengil tashqiga aylantiradi)</t>
+  </si>
+  <si>
+    <t>To'g'ri ichki rectus abdominis mushakning chap qismi (sinistra part m.rectus abdominis) innervatsiya nn.intercostales, n.iliohypogastricus (ThV - ThXII, LI) (vazifa: pres tarkibiga kiradi, torsni oldiga yiqadi) va piramidal mushakning chap qismi (sinistra part m.pyramidslis) innervatsiya nn.intercostales, n.iliohypogastricus (ThV - ThXII, LI) (vazifa: pres tarkibiga kiradi, torsni oldiga yiqadi, qorin oqini chidadi)</t>
+  </si>
+  <si>
+    <t>To'g'ri ichki rectus abdominis mushakning o'ng qismi (dextra part m.rectus abdominis) innervatsiya nn.intercostales, n.iliohypogastricus (ThV - ThXII, LI) (vazifa: pres tarkibiga kiradi, torsni oldiga yiqadi) va piramidal mushakning o'ng qismi (dextra part m.pyramidslis) innervatsiya nn.intercostales, n.iliohypogastricus (ThV - ThXII, LI) (vazifa: pres tarkibiga kiradi, torsni oldiga yiqadi, qorin oqini chidadi)</t>
+  </si>
+  <si>
+    <t>Chap qo'l ikkita mushaki (m.biceps brachii sinistra) innervatsiya n.musculocutaneus (CV - CVII) (vazifa: chap qo'lni loktevom suyakda egizadi va supinatsiyalaydi)</t>
+  </si>
+  <si>
+    <t>O'ng qo'l ikkita mushaki (m.biceps brachii dextra) innervatsiya n.musculocutaneus (CV - CVII) (vazifa: o'ng qo'lni loktevom suyakda egizadi va supinatsiyalaydi)</t>
+  </si>
+  <si>
+    <t>Ko'kraga-cho'pon-suzi miyasi (m.sternocleidomastoideus sinistra) inervatsiya r.externus n.accesorii et nn.cervicales (CII - CIV) (vazifasi: boshni chapga egizadi).</t>
+  </si>
+  <si>
+    <t>Ko'kraga-cho'pon-suzi miyasi (m.sternocleidomastoideus dextra) inervatsiya r.externus n.accesorii et nn.cervicales (CII - CIV) (vazifasi: boshni onga egizadi).</t>
+  </si>
+  <si>
+    <t>Deltoid miyasi old tomoni (anterior part m.deltoideus sinistra) inervatsiya n.axillaris (CV - CVI) (vazifasi: omonni oldiga yoritadi, omonni tashqariga yoritadi) va katta ko'krak miyasi (mm.pectoralis major dextra) inervatsiya nn.pectorales medialis et lateralis (CV - ThI) (vazifasi: omonni ichiga yoritadi va aylantradi).</t>
+  </si>
+  <si>
+    <t>Deltoid miyasi on tomoni (anterior part m.deltoideus dextra) inervatsiya n.axillaris (CV - CVI) (vazifasi: omonni oldiga yoritadi, omonni tashqariga yoritadi) va katta ko'krak miyasi (mm.pectoralis major dextra) inervatsiya nn.pectorales medialis et lateralis (CV - ThI) (vazifasi: omonni ichiga yoritadi va aylantradi).</t>
+  </si>
+  <si>
+    <t>Oyoqning chap tomonidagi keng miya (m.vastus lateralis sinistra) inervatsiya n.femoralis (plexus lumbalis) (LII - LIV) (vazifasi: tizoqni yoritadi va tomonni egizadi).</t>
+  </si>
+  <si>
+    <t>Oyoqning on tomonidagi keng miya (m.vastus lateralis dextra) inervatsiya n.femoralis (plexus lumbalis) (LII - LIV) (vazifasi: tizoqni yoritadi va tomonni egizadi).</t>
+  </si>
+  <si>
+    <t>Chap oldingi guruhining miyalari: uzoq qo'l miyasi (m.palmaris longus) inervatsiya n.medianus (CVI - CVIII) (vazifasi: qo'lning ichki tomonini yoritadi, qo'lni egizadi), sinash eguvchi miyasi (m.flexor carpi radialis) inervatsiya n.medianus (CVI - CVII) (vazifasi: qo'lni egizadi va aylantradi), ochiq barmoq eguvchi miyasi (m.digitorum superfacialis) inervatsiya n.medianus (CVII - ThI) (vazifasi: barmoqlar orasini egizadi), chuqur barmoq eguvchi miyasi (m.flexor digitorum profundus) inervatsiya nn.ulnaris et medianus (CVI - ThI) (vazifasi: barmoqlarning uzoqini egizadi), tirnoq eguvchi miyasi (m.flexor carpi ulnaris) inervatsiya n.ulnaris (CVII - CVIII) (vazifasi: qo'lni egizadi va uni yiqib o'tkazadi).</t>
+  </si>
+  <si>
+    <t>On oldingi guruhining miyalari: uzoq qo'l miyasi (m.palmaris longus) inervatsiya n.medianus (CVI - CVIII) (vazifasi: qo'lning ichki tomonini yoritadi, qo'lni egizadi), sinash eguvchi miyasi (m.flexor carpi radialis) inervatsiya n.medianus (CVI - CVII) (vazifasi: qo'lni egizadi va aylantradi), ochiq barmoq eguvchi miyasi (m.digitorum superfacialis) inervatsiya n.medianus (CVII - ThI) (vazifasi: barmoqlar orasini egizadi), chuqur barmoq eguvchi miyasi (m.flexor digitorum profundus) inervatsiya nn.ulnaris et medianus (CVI - ThI) (vazifasi: barmoqlarning uzoqini egizadi), tirnoq eguvchi miyasi (m.flexor carpi ulnaris) inervatsiya n.ulnaris (CVII - CVIII) (vazifasi: qo'lni egizadi va uni yiqib o'tkazadi).</t>
   </si>
 </sst>
 </file>
@@ -1692,22 +1806,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="1" customWidth="1"/>
-    <col min="13" max="14" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" customWidth="1"/>
     <col min="15" max="15" width="8.7109375" style="1" customWidth="1"/>
-    <col min="16" max="18" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1747,26 +1864,32 @@
       <c r="M1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="O1" t="s">
         <v>192</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>196</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="T1" t="s">
         <v>193</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1806,26 +1929,32 @@
       <c r="M2" t="s">
         <v>231</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="s">
+        <v>289</v>
+      </c>
+      <c r="O2">
         <v>330</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>270</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="R2">
+      <c r="S2" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="T2">
         <v>580</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1865,26 +1994,32 @@
       <c r="M3" t="s">
         <v>238</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="s">
+        <v>272</v>
+      </c>
+      <c r="O3">
         <v>330</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>270</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="R3">
+      <c r="S3" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="T3">
         <v>580</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1924,26 +2059,32 @@
       <c r="M4" t="s">
         <v>263</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="s">
+        <v>274</v>
+      </c>
+      <c r="O4">
         <v>330</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>270</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>261</v>
       </c>
-      <c r="R4">
+      <c r="S4" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T4">
         <v>580</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1983,26 +2124,32 @@
       <c r="M5" t="s">
         <v>264</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="s">
+        <v>273</v>
+      </c>
+      <c r="O5">
         <v>330</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>270</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="R5">
+      <c r="S5" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="T5">
         <v>580</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2042,26 +2189,32 @@
       <c r="M6" t="s">
         <v>265</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="s">
+        <v>275</v>
+      </c>
+      <c r="O6">
         <v>330</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>270</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>267</v>
       </c>
-      <c r="R6">
+      <c r="S6" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="T6">
         <v>580</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2101,26 +2254,32 @@
       <c r="M7" t="s">
         <v>266</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="s">
+        <v>276</v>
+      </c>
+      <c r="O7">
         <v>330</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>270</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="R7">
+      <c r="S7" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="T7">
         <v>580</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2160,26 +2319,32 @@
       <c r="M8" t="s">
         <v>241</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="s">
+        <v>277</v>
+      </c>
+      <c r="O8">
         <v>330</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>610</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>255</v>
       </c>
-      <c r="R8">
+      <c r="S8" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="T8">
         <v>580</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>610</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2219,26 +2384,32 @@
       <c r="M9" t="s">
         <v>248</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="s">
+        <v>278</v>
+      </c>
+      <c r="O9">
         <v>330</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>610</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>256</v>
       </c>
-      <c r="R9">
+      <c r="S9" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="T9">
         <v>580</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>610</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2278,26 +2449,32 @@
       <c r="M10" t="s">
         <v>242</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="s">
+        <v>279</v>
+      </c>
+      <c r="O10">
         <v>330</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>610</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>243</v>
       </c>
-      <c r="R10">
+      <c r="S10" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="T10">
         <v>580</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>610</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2337,26 +2514,32 @@
       <c r="M11" t="s">
         <v>250</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="s">
+        <v>280</v>
+      </c>
+      <c r="O11">
         <v>330</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>610</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>249</v>
       </c>
-      <c r="R11">
+      <c r="S11" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="T11">
         <v>580</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>610</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2396,26 +2579,32 @@
       <c r="M12" t="s">
         <v>244</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="s">
+        <v>281</v>
+      </c>
+      <c r="O12">
         <v>330</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>610</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>245</v>
       </c>
-      <c r="R12">
+      <c r="S12" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="T12">
         <v>580</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>610</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2455,26 +2644,32 @@
       <c r="M13" t="s">
         <v>252</v>
       </c>
-      <c r="N13">
+      <c r="N13" t="s">
+        <v>282</v>
+      </c>
+      <c r="O13">
         <v>330</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>610</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>251</v>
       </c>
-      <c r="R13">
+      <c r="S13" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="T13">
         <v>580</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>610</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2514,26 +2709,32 @@
       <c r="M14" t="s">
         <v>258</v>
       </c>
-      <c r="N14">
+      <c r="N14" t="s">
+        <v>283</v>
+      </c>
+      <c r="O14">
         <v>330</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>610</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>246</v>
       </c>
-      <c r="R14">
+      <c r="S14" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="T14">
         <v>580</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>610</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2573,26 +2774,32 @@
       <c r="M15" t="s">
         <v>257</v>
       </c>
-      <c r="N15">
+      <c r="N15" t="s">
+        <v>284</v>
+      </c>
+      <c r="O15">
         <v>330</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>610</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>253</v>
       </c>
-      <c r="R15">
+      <c r="S15" t="s">
+        <v>302</v>
+      </c>
+      <c r="T15">
         <v>580</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>610</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2632,26 +2839,32 @@
       <c r="M16" t="s">
         <v>260</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="s">
+        <v>285</v>
+      </c>
+      <c r="O16">
         <v>330</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>610</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>247</v>
       </c>
-      <c r="R16">
+      <c r="S16" t="s">
+        <v>303</v>
+      </c>
+      <c r="T16">
         <v>580</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>610</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2691,26 +2904,32 @@
       <c r="M17" t="s">
         <v>259</v>
       </c>
-      <c r="N17">
+      <c r="N17" t="s">
+        <v>286</v>
+      </c>
+      <c r="O17">
         <v>330</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>610</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="Q17" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>254</v>
       </c>
-      <c r="R17">
+      <c r="S17" t="s">
+        <v>304</v>
+      </c>
+      <c r="T17">
         <v>580</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>610</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2750,26 +2969,32 @@
       <c r="M18" t="s">
         <v>236</v>
       </c>
-      <c r="N18">
+      <c r="N18" t="s">
+        <v>287</v>
+      </c>
+      <c r="O18">
         <v>330</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>270</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>235</v>
       </c>
-      <c r="R18">
+      <c r="S18" t="s">
+        <v>305</v>
+      </c>
+      <c r="T18">
         <v>580</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2809,27 +3034,33 @@
       <c r="M19" t="s">
         <v>239</v>
       </c>
-      <c r="N19">
+      <c r="N19" t="s">
+        <v>288</v>
+      </c>
+      <c r="O19">
         <v>330</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>270</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="Q19" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="R19" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="R19">
+      <c r="S19" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="T19">
         <v>580</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>270</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>